--- a/biology/Zoologie/Camponotus_vagus/Camponotus_vagus.xlsx
+++ b/biology/Zoologie/Camponotus_vagus/Camponotus_vagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camponotus vagus est une espèce de fourmis qui se rencontre du Sud de la Scandinavie jusqu'au Nord-ouest de l'Afrique et du Portugal à l'Altaï.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camponotus vagus est une fourmi de grande taille (6-12 mm) dont le corps, entièrement noir mat, présente une importante pilosité blanche[3]. L'espèce est très polymorphe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camponotus vagus est une fourmi de grande taille (6-12 mm) dont le corps, entièrement noir mat, présente une importante pilosité blanche. L'espèce est très polymorphe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (13 avril 2020)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 avril 2020) :
 sous-espèce Camponotus vagus ifranensis Cagniant, 1987
 sous-espèce Camponotus vagus kodoricus Forel, 1913
 sous-espèce Camponotus vagus vagus (Scopoli, 1763)</t>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette fourmi vit presque exclusivement dans le bois mort[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fourmi vit presque exclusivement dans le bois mort.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essaimage a lieu en mai ou juin.
-Les chenilles de l'Azuré des orpins sont soignées par plusieurs espèces de fourmis, dont Camponotus vagus[6]
+Les chenilles de l'Azuré des orpins sont soignées par plusieurs espèces de fourmis, dont Camponotus vagus
 </t>
         </is>
       </c>
